--- a/Unity/Assets/Config/Excel/AbilityConfig/GlobalSettingConfig/GlobalSettingCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GlobalSettingConfig/GlobalSettingCfg.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalSettingConfig\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CE1BE5-CA6B-4A87-A567-E434081A1DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="137">
   <si>
     <t>##column#var</t>
   </si>
@@ -33,6 +35,9 @@
     <t>##type</t>
   </si>
   <si>
+    <t>##group</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
@@ -69,18 +74,30 @@
     <t>testGlobalSetting4</t>
   </si>
   <si>
+    <t>(list#sep=|),string</t>
+  </si>
+  <si>
     <t>hh1;hh2|hh3,hh4</t>
   </si>
   <si>
+    <t>ARTutorialFirstCfgId</t>
+  </si>
+  <si>
     <t>AR模式新手指引关卡的cfgId</t>
   </si>
   <si>
+    <t>GamePlayBattleLevel_ARRoomTutorialFirst</t>
+  </si>
+  <si>
     <t>ARPVPCfgId</t>
   </si>
   <si>
     <t>AR模式PVP的cfgId</t>
   </si>
   <si>
+    <t>GamePlayBattleLevel_ARRoomPVP</t>
+  </si>
+  <si>
     <t>AREndlessChallengeCfgId</t>
   </si>
   <si>
@@ -90,6 +107,24 @@
     <t>GamePlayBattleLevel_ARRoomEndlessChallenge</t>
   </si>
   <si>
+    <t>NoARPVPCfgId</t>
+  </si>
+  <si>
+    <t>非AR模式PVP的cfgId</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_NoARRoomPVP</t>
+  </si>
+  <si>
+    <t>NoAREndlessChallengeCfgId</t>
+  </si>
+  <si>
+    <t>非AR模式PVE无尽模式的cfgId</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_NoARRoomEndlessChallenge</t>
+  </si>
+  <si>
     <t>ShowDamage</t>
   </si>
   <si>
@@ -99,6 +134,18 @@
     <t>是否显示伤害数字展示</t>
   </si>
   <si>
+    <t>ShowGetGold</t>
+  </si>
+  <si>
+    <t>是否显示金币获得展示</t>
+  </si>
+  <si>
+    <t>AvatarIcons</t>
+  </si>
+  <si>
+    <t>(list#sep=|),string#ref=ResIconCfgCategory</t>
+  </si>
+  <si>
     <t>ResIcon_Avatar01|ResIcon_Avatar02|ResIcon_Avatar03|ResIcon_Avatar04|ResIcon_Avatar05</t>
   </si>
   <si>
@@ -129,6 +176,9 @@
     <t>RecoverTimeOfPhysicalStrength</t>
   </si>
   <si>
+    <t>体力值恢复时长(秒)</t>
+  </si>
+  <si>
     <t>RecoverIncreaseOfPhysicalStrength</t>
   </si>
   <si>
@@ -159,179 +209,195 @@
     <t>AR模式PVE无尽模式所需体力</t>
   </si>
   <si>
+    <t>PhysicalStrengthShow</t>
+  </si>
+  <si>
     <t>体力系统是否显示</t>
   </si>
   <si>
     <t>TowerDefenseNearTowerDis</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>两塔允许最近距离</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdmobAvailable</t>
   </si>
   <si>
     <t>广告系统是否可用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdmobAvailable</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PhysicalStrengthShow</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShowGetGold</t>
-  </si>
-  <si>
-    <t>是否显示金币获得展示</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecoverTimeoutTime</t>
+  </si>
+  <si>
+    <t>复活时超时时间(秒)</t>
+  </si>
+  <si>
+    <t>RecoverAddHp</t>
+  </si>
+  <si>
+    <t>复活时增加生命</t>
+  </si>
+  <si>
+    <t>RecoverAddGold</t>
+  </si>
+  <si>
+    <t>复活时增加金币</t>
+  </si>
+  <si>
+    <t>InitialBackpackItem</t>
+  </si>
+  <si>
+    <t>(list#sep=|),string#ref=ItemCfgCategory</t>
   </si>
   <si>
     <t>初始背包物体</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=|),string#ref=ResIconCfgCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=|),string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=|),string#ref=ItemCfgCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitialBackpackItem</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AvatarIcons</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow1_1|Tow2_1|Tow3_1|Tow5_1</t>
+  </si>
+  <si>
+    <t>DemoShowInitialBackpackItem</t>
+  </si>
+  <si>
+    <t>(DemoShow模式)初始背包物体</t>
   </si>
   <si>
     <t>GameReJudgeTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARTutorialFirstCfgId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>datetime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>需要重新评估游戏的时刻</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MaxBattleCardNum</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>最多出战卡数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tow1_1|Tow2_1|Tow3_1|Tow5_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>体力值恢复时长(秒)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NoARPVPCfgId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NoAREndlessChallengeCfgId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>非AR模式PVP的cfgId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>非AR模式PVE无尽模式的cfgId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_NoARRoomPVP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_NoARRoomEndlessChallenge</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_ARRoomPVP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameModeArcadeMasterPassword</t>
+  </si>
+  <si>
+    <t>(街机模式)管理员密码</t>
+  </si>
+  <si>
+    <t>GameModeArcadeInitialBackpackItem</t>
+  </si>
+  <si>
+    <t>(街机模式)初始背包物体</t>
+  </si>
+  <si>
+    <t>Tow1_1|Tow2_1|Tow3_1|Tow4_1|Tow5_1|Tow6_1|Tow7_1|Tow8_1</t>
+  </si>
+  <si>
+    <t>GameModeArcadeSessionTimeOut</t>
+  </si>
+  <si>
+    <t>(街机模式)超时时间(秒)</t>
+  </si>
+  <si>
+    <t>GameModeArcadeCoin2Money</t>
+  </si>
+  <si>
+    <t>(街机模式)代币换算成money的系数</t>
+  </si>
+  <si>
+    <t>GameModeArcadeCoin2WXUrl</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>(街机模式)微信支付URL请求</t>
+  </si>
+  <si>
+    <t>https://www.deepmirror.com.cn/weixinpayorder?orderId={0}&amp;total={1}&amp;orderMsg={2}</t>
+  </si>
+  <si>
+    <t>GameModeArcadeARPVPCfgId</t>
+  </si>
+  <si>
+    <t>(街机模式)PVP的cfgId</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Arcade_ARRoomPVP</t>
   </si>
   <si>
     <t>GameModeArcadeAREndlessChallengeCfgId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(街机模式)PVE无尽模式的cfgId</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Arcade_ARRoomEndlessChallenge</t>
   </si>
   <si>
     <t>GameModeArcadeNoARPVPCfgId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(街机模式)非AR模式PVP的cfgId</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Arcade_NoARRoomPVP</t>
   </si>
   <si>
     <t>GameModeArcadeNoAREndlessChallengeCfgId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_ARRoomTutorialFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Arcade_ARRoomPVP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Arcade_ARRoomEndlessChallenge</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Arcade_NoARRoomPVP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(街机模式)非AR模式PVE无尽模式的cfgId</t>
   </si>
   <si>
     <t>GamePlayBattleLevel_Arcade_NoARRoomEndlessChallenge</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameModeArcadeARScanMeshCfgId</t>
+  </si>
+  <si>
+    <t>(街机模式)管理员扫描地形的cfgId</t>
   </si>
   <si>
     <t>GamePlayBattleLevel_Arcade_ARRoomScanMesh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameModeArcadeARScanMeshCfgId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>GameModeArcadeNoARScanMeshCfgId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(街机模式)非AR管理员扫描地形的cfgId</t>
   </si>
   <si>
     <t>GamePlayBattleLevel_Arcade_NoARRoomScanMesh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameModeArcadeRecoverTimeoutTime</t>
+  </si>
+  <si>
+    <t>(街机模式)复活时超时时间(秒)</t>
+  </si>
+  <si>
+    <t>GameModeArcadeRecoverAddHp</t>
+  </si>
+  <si>
+    <t>(街机模式)复活时增加生命</t>
+  </si>
+  <si>
+    <t>GameModeArcadeRecoverAddGold</t>
+  </si>
+  <si>
+    <t>(街机模式)复活时增加金币</t>
   </si>
   <si>
     <t>GameModeArcadePVPReviveTimeWhenFree</t>
   </si>
   <si>
+    <t>(街机模式)PVP免费的复活次数</t>
+  </si>
+  <si>
     <t>GameModeArcadePVPReviveTimeWhenPay</t>
   </si>
   <si>
@@ -344,6 +410,9 @@
     <t>(街机模式)PVP复活需消耗代币</t>
   </si>
   <si>
+    <t>GameModeArcadePVPCostWhenStart</t>
+  </si>
+  <si>
     <t>(街机模式)PVP开始战斗需消耗代币</t>
   </si>
   <si>
@@ -365,157 +434,23 @@
     <t>(街机模式)无尽模式复活需消耗代币</t>
   </si>
   <si>
+    <t>GameModeArcadeEndlessChallengeCostWhenStart</t>
+  </si>
+  <si>
     <t>(街机模式)无尽模式开始战斗需消耗代币</t>
-  </si>
-  <si>
-    <t>(街机模式)PVP免费的复活次数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(街机模式)PVP的cfgId</t>
-  </si>
-  <si>
-    <t>(街机模式)PVE无尽模式的cfgId</t>
-  </si>
-  <si>
-    <t>(街机模式)非AR模式PVP的cfgId</t>
-  </si>
-  <si>
-    <t>(街机模式)非AR模式PVE无尽模式的cfgId</t>
-  </si>
-  <si>
-    <t>(街机模式)管理员扫描地形的cfgId</t>
-  </si>
-  <si>
-    <t>GameModeArcadeEndlessChallengeCostWhenStart</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameModeArcadePVPCostWhenStart</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>##group</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameModeArcadeCoin2Money</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(街机模式)代币换算成money的系数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameModeArcadeARPVPCfgId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameModeArcadeCoin2WXUrl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(街机模式)微信支付URL请求</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameModeArcadeSessionTimeOut</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameModeArcadeInitialBackpackItem</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(街机模式)超时时间(秒)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(街机模式)初始背包物体</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tow1_1|Tow2_1|Tow3_1|Tow4_1|Tow5_1|Tow6_1|Tow7_1|Tow8_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.deepmirror.com.cn/weixinpayorder?orderId={0}&amp;total={1}&amp;orderMsg={2}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameModeArcadeMasterPassword</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(街机模式)管理员密码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecoverAddHp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecoverAddGold</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>复活时增加生命</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>复活时增加金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(街机模式)非AR管理员扫描地形的cfgId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(街机模式)复活时增加生命</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(街机模式)复活时增加金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameModeArcadeRecoverAddHp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameModeArcadeRecoverAddGold</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameModeArcadeRecoverTimeoutTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(街机模式)复活时超时时间(秒)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecoverTimeoutTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>复活时超时时间(秒)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -526,30 +461,172 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -562,8 +639,194 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -586,20 +849,262 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -608,75 +1113,122 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Excel Built-in Good" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="50">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Excel Built-in Good" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006100"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFC6EFCE"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00006100"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00C6EFCE"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
       <rgbColor rgb="00003366"/>
       <rgbColor rgb="00339966"/>
       <rgbColor rgb="00003300"/>
@@ -690,9 +1242,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -741,7 +1290,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -774,26 +1323,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -826,23 +1358,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -984,866 +1499,876 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AML57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="52.5" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.875" style="1" customWidth="1"/>
-    <col min="6" max="1026" width="9" style="1" customWidth="1"/>
+    <col min="1" max="1" width="52.5" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.875" style="2" customWidth="1"/>
+    <col min="6" max="1026" width="9" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="2:5">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="1" t="b">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="1" t="b">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="1">
+        <v>45</v>
+      </c>
+      <c r="E16" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>31</v>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="1">
+        <v>47</v>
+      </c>
+      <c r="E17" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="1">
+        <v>49</v>
+      </c>
+      <c r="E18" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="1">
+        <v>51</v>
+      </c>
+      <c r="E19" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="1">
+        <v>53</v>
+      </c>
+      <c r="E20" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="1">
+        <v>55</v>
+      </c>
+      <c r="E21" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="1">
+        <v>57</v>
+      </c>
+      <c r="E22" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="1">
+        <v>59</v>
+      </c>
+      <c r="E23" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="1" t="b">
+        <v>61</v>
+      </c>
+      <c r="E24" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="1">
+        <v>64</v>
+      </c>
+      <c r="E25" s="2">
         <v>1.45</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="1" t="b">
+        <v>66</v>
+      </c>
+      <c r="E26" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" s="1">
+        <v>68</v>
+      </c>
+      <c r="E27" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E28" s="1">
+        <v>70</v>
+      </c>
+      <c r="E28" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29" s="1">
+        <v>72</v>
+      </c>
+      <c r="E29" s="2">
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="4" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="4" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="7">
-        <v>45362.785254629627</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="4" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="1">
+        <v>81</v>
+      </c>
+      <c r="E32" s="6">
+        <v>45362.7852546296</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>11</v>
-      </c>
+    <row r="34" spans="1:4">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E34" s="4">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="4" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E36" s="4">
+      <c r="D36" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="4">
         <v>120</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E37" s="4">
-        <v>1</v>
       </c>
       <c r="F37" s="4"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" s="4" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E38" t="s">
-        <v>121</v>
+        <v>63</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
       </c>
       <c r="F38" s="4"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" s="4" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="4" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="4" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="B42" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
         <v>104</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="4" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="4" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="4" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E45" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="4" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E46" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="E46" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="4" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E47" s="1">
+        <v>118</v>
+      </c>
+      <c r="E47" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E48" s="2">
         <v>600</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E49" s="4">
-        <v>1</v>
-      </c>
+    <row r="49" spans="5:8">
+      <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>89</v>
+    <row r="50" spans="1:8">
+      <c r="A50" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E50" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" s="4"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>91</v>
+    <row r="51" spans="1:8">
+      <c r="A51" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="E51" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F51" s="4"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>92</v>
+    <row r="52" spans="1:8">
+      <c r="A52" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="E52" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F52" s="4"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E53" s="4"/>
+    <row r="53" spans="1:8">
+      <c r="A53" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E53" s="4">
+        <v>8</v>
+      </c>
       <c r="F53" s="4"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E54" s="4">
-        <v>1</v>
-      </c>
+    <row r="54" spans="5:8">
+      <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>96</v>
+    <row r="55" spans="1:8">
+      <c r="A55" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="E55" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" s="4"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>98</v>
+    <row r="56" spans="1:8">
+      <c r="A56" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="E56" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F56" s="4"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>99</v>
+    <row r="57" spans="1:8">
+      <c r="A57" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="E57" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F57" s="4"/>
       <c r="H57" s="4"/>
     </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E58" s="4">
+        <v>8</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="H58" s="4"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AbilityConfig/GlobalSettingConfig/GlobalSettingCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GlobalSettingConfig/GlobalSettingCfg.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalSettingConfig\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9A3FE9-9E31-4C6B-8314-1C88BAFB5FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17700" tabRatio="500"/>
+    <workbookView xWindow="23160" yWindow="4200" windowWidth="20376" windowHeight="8508" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -257,15 +261,9 @@
     <t>初始背包物体</t>
   </si>
   <si>
-    <t>Tow1_1|Tow2_1|Tow3_1|Tow5_1</t>
-  </si>
-  <si>
     <t>DemoShowInitialBackpackItem</t>
   </si>
   <si>
-    <t>(DemoShow模式)初始背包物体</t>
-  </si>
-  <si>
     <t>GameReJudgeTime</t>
   </si>
   <si>
@@ -438,19 +436,20 @@
   </si>
   <si>
     <t>(街机模式)无尽模式开始战斗需消耗代币</t>
+  </si>
+  <si>
+    <t>string#ref=GamePlayBattleLevelCfgCategory</t>
+  </si>
+  <si>
+    <t>(展示模式)初始背包物体</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -461,172 +460,30 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -639,194 +496,8 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -849,262 +520,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1118,58 +547,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
-    <cellStyle name="Excel Built-in Good" xfId="49"/>
+  <cellStyles count="2">
+    <cellStyle name="Excel Built-in Good" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1242,6 +624,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1499,28 +884,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AML58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.5" style="2" customWidth="1"/>
-    <col min="2" max="3" width="11.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="52.44140625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" style="2" customWidth="1"/>
     <col min="6" max="1026" width="9" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1535,7 +920,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
@@ -1545,7 +930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1560,7 +945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1575,7 +960,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1588,7 +973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1600,12 +985,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
@@ -1615,12 +1000,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
@@ -1630,12 +1015,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
@@ -1645,12 +1030,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
@@ -1660,12 +1045,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
@@ -1675,7 +1060,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
@@ -1690,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
@@ -1705,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
@@ -1717,7 +1102,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>40</v>
       </c>
@@ -1732,7 +1117,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>44</v>
       </c>
@@ -1747,7 +1132,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -1762,7 +1147,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>48</v>
       </c>
@@ -1777,7 +1162,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>50</v>
       </c>
@@ -1792,7 +1177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>52</v>
       </c>
@@ -1807,7 +1192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>54</v>
       </c>
@@ -1822,7 +1207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>56</v>
       </c>
@@ -1837,7 +1222,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>58</v>
       </c>
@@ -1852,7 +1237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>60</v>
       </c>
@@ -1867,7 +1252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>62</v>
       </c>
@@ -1882,7 +1267,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>65</v>
       </c>
@@ -1897,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>67</v>
       </c>
@@ -1912,7 +1297,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>69</v>
       </c>
@@ -1927,7 +1312,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>71</v>
       </c>
@@ -1942,7 +1327,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>73</v>
       </c>
@@ -1954,102 +1339,102 @@
         <v>75</v>
       </c>
       <c r="E30" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E32" s="6">
-        <v>45362.7852546296</v>
+        <v>45362.785254629598</v>
       </c>
       <c r="F32" s="4"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E33" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E35" s="4">
         <v>1234</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E37" s="4">
         <v>120</v>
@@ -2057,16 +1442,16 @@
       <c r="F37" s="4"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E38" s="4">
         <v>1</v>
@@ -2074,174 +1459,174 @@
       <c r="F38" s="4"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" t="s">
         <v>94</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" t="s">
-        <v>96</v>
       </c>
       <c r="F39" s="4"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="B41" s="4" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="B42" s="4" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="B43" s="4" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="B44" s="4" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="B45" s="4" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E46" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E47" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E48" s="2">
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="5:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E50" s="4">
         <v>1</v>
@@ -2249,15 +1634,15 @@
       <c r="F50" s="4"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E51" s="4">
         <v>2</v>
@@ -2265,15 +1650,15 @@
       <c r="F51" s="4"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E52" s="4">
         <v>5</v>
@@ -2281,15 +1666,15 @@
       <c r="F52" s="4"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E53" s="4">
         <v>8</v>
@@ -2297,20 +1682,20 @@
       <c r="F53" s="4"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="5:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E55" s="4">
         <v>1</v>
@@ -2318,15 +1703,15 @@
       <c r="F55" s="4"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E56" s="4">
         <v>2</v>
@@ -2334,15 +1719,15 @@
       <c r="F56" s="4"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E57" s="4">
         <v>5</v>
@@ -2350,15 +1735,15 @@
       <c r="F57" s="4"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E58" s="4">
         <v>8</v>
@@ -2367,8 +1752,8 @@
       <c r="H58" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AbilityConfig/GlobalSettingConfig/GlobalSettingCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GlobalSettingConfig/GlobalSettingCfg.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalSettingConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalSettingConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9A3FE9-9E31-4C6B-8314-1C88BAFB5FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAC721F-0114-4A44-97F2-B29408DE5A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23160" yWindow="4200" windowWidth="20376" windowHeight="8508" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="151">
   <si>
     <t>##column#var</t>
   </si>
@@ -150,9 +139,6 @@
     <t>(list#sep=|),string#ref=ResIconCfgCategory</t>
   </si>
   <si>
-    <t>ResIcon_Avatar01|ResIcon_Avatar02|ResIcon_Avatar03|ResIcon_Avatar04|ResIcon_Avatar05</t>
-  </si>
-  <si>
     <t>BeginnersGuideImgs</t>
   </si>
   <si>
@@ -183,265 +169,329 @@
     <t>体力值恢复时长(秒)</t>
   </si>
   <si>
+    <t>体力值恢复增加量</t>
+  </si>
+  <si>
+    <t>RecoverIncreaseOfPhysicalStrengthByAd</t>
+  </si>
+  <si>
+    <t>看广告体力值恢复量</t>
+  </si>
+  <si>
+    <t>AR模式PVE所需体力</t>
+  </si>
+  <si>
+    <t>ARPVPCfgTakePhsicalStrength</t>
+  </si>
+  <si>
+    <t>AR模式PVP所需体力</t>
+  </si>
+  <si>
+    <t>AREndlessChallengeTakePhsicalStrength</t>
+  </si>
+  <si>
+    <t>AR模式PVE无尽模式所需体力</t>
+  </si>
+  <si>
+    <t>PhysicalStrengthShow</t>
+  </si>
+  <si>
+    <t>体力系统是否显示</t>
+  </si>
+  <si>
+    <t>TowerDefenseNearTowerDis</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>两塔允许最近距离</t>
+  </si>
+  <si>
+    <t>AdmobAvailable</t>
+  </si>
+  <si>
+    <t>广告系统是否可用</t>
+  </si>
+  <si>
+    <t>RecoverTimeoutTime</t>
+  </si>
+  <si>
+    <t>复活时超时时间(秒)</t>
+  </si>
+  <si>
+    <t>RecoverAddHp</t>
+  </si>
+  <si>
+    <t>复活时增加生命</t>
+  </si>
+  <si>
+    <t>RecoverAddGold</t>
+  </si>
+  <si>
+    <t>复活时增加金币</t>
+  </si>
+  <si>
+    <t>InitialBackpackItem</t>
+  </si>
+  <si>
+    <t>(list#sep=|),string#ref=ItemCfgCategory</t>
+  </si>
+  <si>
+    <t>初始背包物体</t>
+  </si>
+  <si>
+    <t>GameReJudgeTime</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>需要重新评估游戏的时刻</t>
+  </si>
+  <si>
+    <t>MaxBattleCardNum</t>
+  </si>
+  <si>
+    <t>最多出战卡数</t>
+  </si>
+  <si>
+    <t>GameModeArcadeMasterPassword</t>
+  </si>
+  <si>
+    <t>(街机模式)管理员密码</t>
+  </si>
+  <si>
+    <t>GameModeArcadeInitialBackpackItem</t>
+  </si>
+  <si>
+    <t>(街机模式)初始背包物体</t>
+  </si>
+  <si>
+    <t>GameModeArcadeSessionTimeOut</t>
+  </si>
+  <si>
+    <t>(街机模式)超时时间(秒)</t>
+  </si>
+  <si>
+    <t>GameModeArcadeCoin2Money</t>
+  </si>
+  <si>
+    <t>(街机模式)代币换算成money的系数</t>
+  </si>
+  <si>
+    <t>GameModeArcadeCoin2WXUrl</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>(街机模式)微信支付URL请求</t>
+  </si>
+  <si>
+    <t>https://www.deepmirror.com.cn/weixinpayorder?orderId={0}&amp;total={1}&amp;orderMsg={2}</t>
+  </si>
+  <si>
+    <t>GameModeArcadeARPVPCfgId</t>
+  </si>
+  <si>
+    <t>(街机模式)PVP的cfgId</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Arcade_ARRoomPVP</t>
+  </si>
+  <si>
+    <t>GameModeArcadeAREndlessChallengeCfgId</t>
+  </si>
+  <si>
+    <t>(街机模式)PVE无尽模式的cfgId</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Arcade_ARRoomEndlessChallenge</t>
+  </si>
+  <si>
+    <t>GameModeArcadeNoARPVPCfgId</t>
+  </si>
+  <si>
+    <t>(街机模式)非AR模式PVP的cfgId</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Arcade_NoARRoomPVP</t>
+  </si>
+  <si>
+    <t>GameModeArcadeNoAREndlessChallengeCfgId</t>
+  </si>
+  <si>
+    <t>(街机模式)非AR模式PVE无尽模式的cfgId</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Arcade_NoARRoomEndlessChallenge</t>
+  </si>
+  <si>
+    <t>GameModeArcadeARScanMeshCfgId</t>
+  </si>
+  <si>
+    <t>(街机模式)管理员扫描地形的cfgId</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Arcade_ARRoomScanMesh</t>
+  </si>
+  <si>
+    <t>GameModeArcadeNoARScanMeshCfgId</t>
+  </si>
+  <si>
+    <t>(街机模式)非AR管理员扫描地形的cfgId</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Arcade_NoARRoomScanMesh</t>
+  </si>
+  <si>
+    <t>GameModeArcadeRecoverTimeoutTime</t>
+  </si>
+  <si>
+    <t>(街机模式)复活时超时时间(秒)</t>
+  </si>
+  <si>
+    <t>GameModeArcadeRecoverAddHp</t>
+  </si>
+  <si>
+    <t>(街机模式)复活时增加生命</t>
+  </si>
+  <si>
+    <t>GameModeArcadeRecoverAddGold</t>
+  </si>
+  <si>
+    <t>(街机模式)复活时增加金币</t>
+  </si>
+  <si>
+    <t>GameModeArcadePVPReviveTimeWhenFree</t>
+  </si>
+  <si>
+    <t>(街机模式)PVP免费的复活次数</t>
+  </si>
+  <si>
+    <t>GameModeArcadePVPReviveTimeWhenPay</t>
+  </si>
+  <si>
+    <t>(街机模式)PVP付费的复活次数</t>
+  </si>
+  <si>
+    <t>GameModeArcadePVPCostWhenRevive</t>
+  </si>
+  <si>
+    <t>(街机模式)PVP复活需消耗代币</t>
+  </si>
+  <si>
+    <t>GameModeArcadePVPCostWhenStart</t>
+  </si>
+  <si>
+    <t>(街机模式)PVP开始战斗需消耗代币</t>
+  </si>
+  <si>
+    <t>GameModeArcadeEndlessChallengeReviveTimeWhenFree</t>
+  </si>
+  <si>
+    <t>(街机模式)无尽模式免费的复活次数</t>
+  </si>
+  <si>
+    <t>GameModeArcadeEndlessChallengeReviveTimeWhenPay</t>
+  </si>
+  <si>
+    <t>(街机模式)无尽模式付费的复活次数</t>
+  </si>
+  <si>
+    <t>GameModeArcadeEndlessChallengeCostWhenRevive</t>
+  </si>
+  <si>
+    <t>(街机模式)无尽模式复活需消耗代币</t>
+  </si>
+  <si>
+    <t>GameModeArcadeEndlessChallengeCostWhenStart</t>
+  </si>
+  <si>
+    <t>(街机模式)无尽模式开始战斗需消耗代币</t>
+  </si>
+  <si>
+    <t>string#ref=GamePlayBattleLevelCfgCategory</t>
+  </si>
+  <si>
+    <t>(展示模式)初始背包物体</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>RecoverIncreaseOfPhysicalStrength</t>
-  </si>
-  <si>
-    <t>体力值恢复增加量</t>
-  </si>
-  <si>
-    <t>RecoverIncreaseOfPhysicalStrengthByAd</t>
-  </si>
-  <si>
-    <t>看广告体力值恢复量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ARPVECfgTakePhsicalStrength</t>
-  </si>
-  <si>
-    <t>AR模式PVE所需体力</t>
-  </si>
-  <si>
-    <t>ARPVPCfgTakePhsicalStrength</t>
-  </si>
-  <si>
-    <t>AR模式PVP所需体力</t>
-  </si>
-  <si>
-    <t>AREndlessChallengeTakePhsicalStrength</t>
-  </si>
-  <si>
-    <t>AR模式PVE无尽模式所需体力</t>
-  </si>
-  <si>
-    <t>PhysicalStrengthShow</t>
-  </si>
-  <si>
-    <t>体力系统是否显示</t>
-  </si>
-  <si>
-    <t>TowerDefenseNearTowerDis</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DemoShowInitialBackpackItem</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeasonStartTime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛季开始时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeasonDurationTime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个赛季持续时间(天)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow1_1|Tow2_1|Tow3_1|Tow4_1|Tow5_1|Tow6_1|Tow7_1|AvatarFrame_None</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow1_1|Tow2_1|Tow3_1|Tow4_1|Tow5_1|Tow6_1|Tow7_1|Tow8_1|AvatarFrame_None</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>float</t>
-  </si>
-  <si>
-    <t>两塔允许最近距离</t>
-  </si>
-  <si>
-    <t>AdmobAvailable</t>
-  </si>
-  <si>
-    <t>广告系统是否可用</t>
-  </si>
-  <si>
-    <t>RecoverTimeoutTime</t>
-  </si>
-  <si>
-    <t>复活时超时时间(秒)</t>
-  </si>
-  <si>
-    <t>RecoverAddHp</t>
-  </si>
-  <si>
-    <t>复活时增加生命</t>
-  </si>
-  <si>
-    <t>RecoverAddGold</t>
-  </si>
-  <si>
-    <t>复活时增加金币</t>
-  </si>
-  <si>
-    <t>InitialBackpackItem</t>
-  </si>
-  <si>
-    <t>(list#sep=|),string#ref=ItemCfgCategory</t>
-  </si>
-  <si>
-    <t>初始背包物体</t>
-  </si>
-  <si>
-    <t>DemoShowInitialBackpackItem</t>
-  </si>
-  <si>
-    <t>GameReJudgeTime</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>需要重新评估游戏的时刻</t>
-  </si>
-  <si>
-    <t>MaxBattleCardNum</t>
-  </si>
-  <si>
-    <t>最多出战卡数</t>
-  </si>
-  <si>
-    <t>GameModeArcadeMasterPassword</t>
-  </si>
-  <si>
-    <t>(街机模式)管理员密码</t>
-  </si>
-  <si>
-    <t>GameModeArcadeInitialBackpackItem</t>
-  </si>
-  <si>
-    <t>(街机模式)初始背包物体</t>
-  </si>
-  <si>
-    <t>Tow1_1|Tow2_1|Tow3_1|Tow4_1|Tow5_1|Tow6_1|Tow7_1|Tow8_1</t>
-  </si>
-  <si>
-    <t>GameModeArcadeSessionTimeOut</t>
-  </si>
-  <si>
-    <t>(街机模式)超时时间(秒)</t>
-  </si>
-  <si>
-    <t>GameModeArcadeCoin2Money</t>
-  </si>
-  <si>
-    <t>(街机模式)代币换算成money的系数</t>
-  </si>
-  <si>
-    <t>GameModeArcadeCoin2WXUrl</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>(街机模式)微信支付URL请求</t>
-  </si>
-  <si>
-    <t>https://www.deepmirror.com.cn/weixinpayorder?orderId={0}&amp;total={1}&amp;orderMsg={2}</t>
-  </si>
-  <si>
-    <t>GameModeArcadeARPVPCfgId</t>
-  </si>
-  <si>
-    <t>(街机模式)PVP的cfgId</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Arcade_ARRoomPVP</t>
-  </si>
-  <si>
-    <t>GameModeArcadeAREndlessChallengeCfgId</t>
-  </si>
-  <si>
-    <t>(街机模式)PVE无尽模式的cfgId</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Arcade_ARRoomEndlessChallenge</t>
-  </si>
-  <si>
-    <t>GameModeArcadeNoARPVPCfgId</t>
-  </si>
-  <si>
-    <t>(街机模式)非AR模式PVP的cfgId</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Arcade_NoARRoomPVP</t>
-  </si>
-  <si>
-    <t>GameModeArcadeNoAREndlessChallengeCfgId</t>
-  </si>
-  <si>
-    <t>(街机模式)非AR模式PVE无尽模式的cfgId</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Arcade_NoARRoomEndlessChallenge</t>
-  </si>
-  <si>
-    <t>GameModeArcadeARScanMeshCfgId</t>
-  </si>
-  <si>
-    <t>(街机模式)管理员扫描地形的cfgId</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Arcade_ARRoomScanMesh</t>
-  </si>
-  <si>
-    <t>GameModeArcadeNoARScanMeshCfgId</t>
-  </si>
-  <si>
-    <t>(街机模式)非AR管理员扫描地形的cfgId</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Arcade_NoARRoomScanMesh</t>
-  </si>
-  <si>
-    <t>GameModeArcadeRecoverTimeoutTime</t>
-  </si>
-  <si>
-    <t>(街机模式)复活时超时时间(秒)</t>
-  </si>
-  <si>
-    <t>GameModeArcadeRecoverAddHp</t>
-  </si>
-  <si>
-    <t>(街机模式)复活时增加生命</t>
-  </si>
-  <si>
-    <t>GameModeArcadeRecoverAddGold</t>
-  </si>
-  <si>
-    <t>(街机模式)复活时增加金币</t>
-  </si>
-  <si>
-    <t>GameModeArcadePVPReviveTimeWhenFree</t>
-  </si>
-  <si>
-    <t>(街机模式)PVP免费的复活次数</t>
-  </si>
-  <si>
-    <t>GameModeArcadePVPReviveTimeWhenPay</t>
-  </si>
-  <si>
-    <t>(街机模式)PVP付费的复活次数</t>
-  </si>
-  <si>
-    <t>GameModeArcadePVPCostWhenRevive</t>
-  </si>
-  <si>
-    <t>(街机模式)PVP复活需消耗代币</t>
-  </si>
-  <si>
-    <t>GameModeArcadePVPCostWhenStart</t>
-  </si>
-  <si>
-    <t>(街机模式)PVP开始战斗需消耗代币</t>
-  </si>
-  <si>
-    <t>GameModeArcadeEndlessChallengeReviveTimeWhenFree</t>
-  </si>
-  <si>
-    <t>(街机模式)无尽模式免费的复活次数</t>
-  </si>
-  <si>
-    <t>GameModeArcadeEndlessChallengeReviveTimeWhenPay</t>
-  </si>
-  <si>
-    <t>(街机模式)无尽模式付费的复活次数</t>
-  </si>
-  <si>
-    <t>GameModeArcadeEndlessChallengeCostWhenRevive</t>
-  </si>
-  <si>
-    <t>(街机模式)无尽模式复活需消耗代币</t>
-  </si>
-  <si>
-    <t>GameModeArcadeEndlessChallengeCostWhenStart</t>
-  </si>
-  <si>
-    <t>(街机模式)无尽模式开始战斗需消耗代币</t>
-  </si>
-  <si>
-    <t>string#ref=GamePlayBattleLevelCfgCategory</t>
-  </si>
-  <si>
-    <t>(展示模式)初始背包物体</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGList</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家头像列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景图片列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=|),string#ref=ResIconCfgCategory</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResIcon_BG1|ResIcon_BG2|ResIcon_BG3|ResIcon_BG4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResIcon_Avatar01|ResIcon_Avatar02|ResIcon_Avatar03|ResIcon_Avatar04|ResIcon_Avatar05|ResIcon_Avatar06|ResIcon_Avatar07|ResIcon_Avatar08|ResIcon_Avatar09|ResIcon_Avatar10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow1_1|Tow2_1|Tow3_1|Tow4_1|Tow5_1|Tow6_1|Tow7_1|Tow10_1|AvatarFrame_None</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventLogCameraPosHz</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上报相机位置的频率(秒)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -890,22 +940,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AML58"/>
+  <dimension ref="A1:AML64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.44140625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="11.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="52.5" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.875" style="2" customWidth="1"/>
     <col min="6" max="1026" width="9" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -920,7 +970,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
@@ -930,7 +980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -945,7 +995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -960,7 +1010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -973,7 +1023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -985,12 +1035,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
@@ -1000,12 +1050,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
@@ -1015,12 +1065,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
@@ -1030,12 +1080,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
@@ -1045,12 +1095,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
@@ -1060,7 +1110,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
@@ -1075,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
@@ -1090,7 +1140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
@@ -1098,658 +1148,730 @@
         <v>38</v>
       </c>
       <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="E14" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>44</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E17" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>48</v>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E18" s="2">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E20" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E22" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E23" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="E24" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="E25" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="E26" s="2">
+        <f>1.45*1.25</f>
+        <v>1.8125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="2">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="E27" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E28" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E29" s="2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E32" s="6">
-        <v>45362.785254629598</v>
+        <v>45362.785254629627</v>
       </c>
       <c r="F32" s="4"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E33" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D34" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="6">
+        <v>45495.5</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="4">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>74</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="E35" s="2">
+        <v>7</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" s="4">
-        <v>120</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="D37" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="4">
-        <v>1</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" t="s">
-        <v>94</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D41" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="4">
+        <v>120</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D42" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E46" s="2">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E47" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E48" s="2">
+        <v>103</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E50" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E52" s="2">
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E50" s="4">
-        <v>1</v>
-      </c>
-      <c r="F50" s="4"/>
-      <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E51" s="4">
-        <v>2</v>
-      </c>
-      <c r="F51" s="4"/>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E52" s="4">
-        <v>5</v>
-      </c>
-      <c r="F52" s="4"/>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E53" s="4">
-        <v>8</v>
-      </c>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E54" s="4"/>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1</v>
+      </c>
       <c r="F54" s="4"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E55" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" s="4"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E56" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F56" s="4"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>131</v>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E57" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F57" s="4"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E58" s="4">
-        <v>8</v>
-      </c>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" s="4">
+        <v>1</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" s="4">
+        <v>2</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E61" s="4">
+        <v>5</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E62" s="4">
+        <v>8</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E64" s="2">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GlobalSettingConfig/GlobalSettingCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GlobalSettingConfig/GlobalSettingCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalSettingConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAC721F-0114-4A44-97F2-B29408DE5A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B621098C-EC6D-48ED-BE02-17AEAF9A284F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="152">
   <si>
     <t>##column#var</t>
   </si>
@@ -447,10 +447,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Tow1_1|Tow2_1|Tow3_1|Tow4_1|Tow5_1|Tow6_1|Tow7_1|AvatarFrame_None</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Tow1_1|Tow2_1|Tow3_1|Tow4_1|Tow5_1|Tow6_1|Tow7_1|Tow8_1|AvatarFrame_None</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -483,15 +479,23 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Tow1_1|Tow2_1|Tow3_1|Tow4_1|Tow5_1|Tow6_1|Tow7_1|Tow10_1|AvatarFrame_None</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>EventLogCameraPosHz</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>上报相机位置的频率(秒)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow1_1|Tow2_1|Tow7_1|AvatarFrame_None</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxBattleSkillNum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>最多出战技能数</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -940,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AML64"/>
+  <dimension ref="A1:AML65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1149,25 +1153,25 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1197,7 +1201,7 @@
         <v>44</v>
       </c>
       <c r="E17" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1212,7 +1216,7 @@
         <v>46</v>
       </c>
       <c r="E18" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1393,7 +1397,7 @@
         <v>69</v>
       </c>
       <c r="E30" s="2">
-        <v>600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1408,7 +1412,7 @@
         <v>72</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1445,431 +1449,446 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E34" s="6">
-        <v>45495.5</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="H34" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E34" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E35" s="2">
-        <v>7</v>
+        <v>136</v>
+      </c>
+      <c r="E35" s="6">
+        <v>45495.5</v>
       </c>
       <c r="F35" s="4"/>
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="4"/>
+      <c r="A36" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="D36" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="2">
+        <v>7</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4" t="s">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
       <c r="C39" s="4"/>
-      <c r="D39" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" s="4">
-        <v>1234</v>
-      </c>
+      <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>140</v>
+        <v>79</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1234</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E41" s="4">
-        <v>120</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="H41" s="4"/>
+      <c r="D41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E42" s="4">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="F42" s="4"/>
       <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>87</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C43" s="4"/>
       <c r="D43" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E43" t="s">
-        <v>89</v>
+        <v>85</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1</v>
       </c>
       <c r="F43" s="4"/>
       <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>92</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" t="s">
+        <v>89</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E50" s="2">
-        <v>120</v>
+        <v>106</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E51" s="2">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E53" s="2">
         <v>600</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="H53" s="4"/>
-    </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E54" s="4">
-        <v>1</v>
-      </c>
+      <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="H54" s="4"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>117</v>
+      <c r="D55" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="E55" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" s="4"/>
       <c r="H55" s="4"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E56" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F56" s="4"/>
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>120</v>
+      <c r="A57" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E57" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F57" s="4"/>
       <c r="H57" s="4"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E58" s="4"/>
+      <c r="A58" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E58" s="4">
+        <v>8</v>
+      </c>
       <c r="F58" s="4"/>
       <c r="H58" s="4"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E59" s="4">
-        <v>1</v>
-      </c>
+      <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="H59" s="4"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E60" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" s="4"/>
       <c r="H60" s="4"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E61" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F61" s="4"/>
       <c r="H61" s="4"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
-        <v>128</v>
+      <c r="A62" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E62" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F62" s="4"/>
       <c r="H62" s="4"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E64" s="2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E63" s="4">
+        <v>8</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E65" s="2">
         <v>2</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GlobalSettingConfig/GlobalSettingCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GlobalSettingConfig/GlobalSettingCfg.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalSettingConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalSettingConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B621098C-EC6D-48ED-BE02-17AEAF9A284F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3825ED-4C00-4D51-98BA-448C6E422571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="160">
   <si>
     <t>##column#var</t>
   </si>
@@ -199,15 +210,9 @@
     <t>体力系统是否显示</t>
   </si>
   <si>
-    <t>TowerDefenseNearTowerDis</t>
-  </si>
-  <si>
     <t>float</t>
   </si>
   <si>
-    <t>两塔允许最近距离</t>
-  </si>
-  <si>
     <t>AdmobAvailable</t>
   </si>
   <si>
@@ -496,6 +501,46 @@
   </si>
   <si>
     <t>最多出战技能数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefenseNearDisWhenAttackTower</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击塔允许靠近其他的距离</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefenseNearDisWhenColliderTower</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefenseNearDisWhenTrapTower</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱塔允许靠近其他的距离</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞塔允许靠近其他的距离</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefenseNearDisWhenHome</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefenseNearDisWhenMonsterCall</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大本营允许靠近其他的距离</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出怪点允许靠近其他的距离</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -944,22 +989,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AML65"/>
+  <dimension ref="A1:AML69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.5" style="2" customWidth="1"/>
-    <col min="2" max="3" width="11.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="52.44140625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" style="2" customWidth="1"/>
     <col min="6" max="1026" width="9" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -974,7 +1019,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
@@ -984,7 +1029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -999,7 +1044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1014,7 +1059,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1027,7 +1072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1039,12 +1084,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
@@ -1054,12 +1099,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
@@ -1069,12 +1114,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
@@ -1084,12 +1129,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
@@ -1099,12 +1144,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
@@ -1114,7 +1159,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
@@ -1129,7 +1174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
@@ -1144,7 +1189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
@@ -1153,28 +1198,28 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>39</v>
       </c>
@@ -1189,7 +1234,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
@@ -1204,7 +1249,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
@@ -1219,7 +1264,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>47</v>
       </c>
@@ -1234,9 +1279,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>7</v>
@@ -1249,7 +1294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>50</v>
       </c>
@@ -1264,9 +1309,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>7</v>
@@ -1279,7 +1324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>53</v>
       </c>
@@ -1294,7 +1339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>55</v>
       </c>
@@ -1309,7 +1354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>57</v>
       </c>
@@ -1324,571 +1369,630 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="E26" s="2">
-        <f>1.45*1.25</f>
-        <v>1.8125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="E28" s="2">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="E29" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="E30" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="E31" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="6">
-        <v>45362.785254629627</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="E32" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E33" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="E34" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E35" s="6">
-        <v>45495.5</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E36" s="2">
-        <v>7</v>
+        <v>73</v>
+      </c>
+      <c r="E36" s="6">
+        <v>45362.785254629627</v>
       </c>
       <c r="F36" s="4"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="4"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D37" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E38" s="4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
+      <c r="E38" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D39" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="6">
+        <v>45495.5</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" s="4">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>71</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="E40" s="2">
+        <v>7</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
       <c r="C41" s="4"/>
-      <c r="D41" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42" s="4">
-        <v>120</v>
-      </c>
-      <c r="F42" s="4"/>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="D42" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
       <c r="C43" s="4"/>
-      <c r="D43" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" s="4">
-        <v>1</v>
-      </c>
-      <c r="F43" s="4"/>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" t="s">
-        <v>89</v>
-      </c>
-      <c r="F44" s="4"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="C46" s="4"/>
-      <c r="D46" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D46" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="4">
+        <v>120</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D47" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" t="s">
+        <v>87</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E51" s="2">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E52" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E53" s="2">
+        <v>101</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57" s="2">
         <v>600</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E55" s="4">
-        <v>1</v>
-      </c>
-      <c r="F55" s="4"/>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E56" s="4">
-        <v>2</v>
-      </c>
-      <c r="F56" s="4"/>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E57" s="4">
-        <v>5</v>
-      </c>
-      <c r="F57" s="4"/>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E58" s="4">
-        <v>8</v>
-      </c>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E59" s="4"/>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E59" s="4">
+        <v>1</v>
+      </c>
       <c r="F59" s="4"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E60" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" s="4"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E61" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F61" s="4"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>126</v>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E62" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F62" s="4"/>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E63" s="4">
-        <v>8</v>
-      </c>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E65" s="2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E64" s="4">
+        <v>1</v>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E65" s="4">
+        <v>2</v>
+      </c>
+      <c r="F65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E66" s="4">
+        <v>5</v>
+      </c>
+      <c r="F66" s="4"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E67" s="4">
+        <v>8</v>
+      </c>
+      <c r="F67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E69" s="2">
         <v>2</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GlobalSettingConfig/GlobalSettingCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GlobalSettingConfig/GlobalSettingCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalSettingConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3825ED-4C00-4D51-98BA-448C6E422571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AD993B-B94D-4BF8-925A-302730CDA1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="192">
   <si>
     <t>##column#var</t>
   </si>
@@ -189,21 +189,6 @@
     <t>看广告体力值恢复量</t>
   </si>
   <si>
-    <t>AR模式PVE所需体力</t>
-  </si>
-  <si>
-    <t>ARPVPCfgTakePhsicalStrength</t>
-  </si>
-  <si>
-    <t>AR模式PVP所需体力</t>
-  </si>
-  <si>
-    <t>AREndlessChallengeTakePhsicalStrength</t>
-  </si>
-  <si>
-    <t>AR模式PVE无尽模式所需体力</t>
-  </si>
-  <si>
     <t>PhysicalStrengthShow</t>
   </si>
   <si>
@@ -258,9 +243,6 @@
     <t>MaxBattleCardNum</t>
   </si>
   <si>
-    <t>最多出战卡数</t>
-  </si>
-  <si>
     <t>GameModeArcadeMasterPassword</t>
   </si>
   <si>
@@ -428,10 +410,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ARPVECfgTakePhsicalStrength</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>DemoShowInitialBackpackItem</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -452,10 +430,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Tow1_1|Tow2_1|Tow3_1|Tow4_1|Tow5_1|Tow6_1|Tow7_1|Tow8_1|AvatarFrame_None</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -492,10 +466,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Tow1_1|Tow2_1|Tow7_1|AvatarFrame_None</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>MaxBattleSkillNum</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -541,6 +511,163 @@
   </si>
   <si>
     <t>出怪点允许靠近其他的距离</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OwnerARPVECfgTakePhsicalStrength</t>
+  </si>
+  <si>
+    <t>房主-AR模式PVE所需体力</t>
+  </si>
+  <si>
+    <t>OwnerARPVESeasonCfgTakePhsicalStrength</t>
+  </si>
+  <si>
+    <t>房主-AR模式PVESeason所需体力</t>
+  </si>
+  <si>
+    <t>OwnerARPVPCfgTakePhsicalStrength</t>
+  </si>
+  <si>
+    <t>房主-AR模式PVP所需体力</t>
+  </si>
+  <si>
+    <t>OwnerARPVPSeasonCfgTakePhsicalStrength</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>房主-AR模式PVPSeason所需体力</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OwnerAREndlessChallengeTakePhsicalStrength</t>
+  </si>
+  <si>
+    <t>房主-AR模式无尽模式所需体力</t>
+  </si>
+  <si>
+    <t>OwnerAREndlessChallengeSeasonTakePhsicalStrength</t>
+  </si>
+  <si>
+    <t>房主-AR模式无尽模式Season所需体力</t>
+  </si>
+  <si>
+    <t>OtherARPVECfgTakePhsicalStrength</t>
+  </si>
+  <si>
+    <t>成员-AR模式PVE所需体力</t>
+  </si>
+  <si>
+    <t>OtherARPVESeasonCfgTakePhsicalStrength</t>
+  </si>
+  <si>
+    <t>成员-AR模式PVESeason所需体力</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OtherARPVPCfgTakePhsicalStrength</t>
+  </si>
+  <si>
+    <t>成员-AR模式PVP所需体力</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OtherARPVPSeasonCfgTakePhsicalStrength</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员-AR模式PVPSeason所需体力</t>
+  </si>
+  <si>
+    <t>OtherAREndlessChallengeTakePhsicalStrength</t>
+  </si>
+  <si>
+    <t>成员-AR模式无尽模式所需体力</t>
+  </si>
+  <si>
+    <t>OtherAREndlessChallengeSeasonTakePhsicalStrength</t>
+  </si>
+  <si>
+    <t>成员-AR模式无尽模式Season所需体力</t>
+  </si>
+  <si>
+    <t>MinDisWhenMonsterCall2HeadQuarter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷怪点到大本营的最新距离</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerLevelWhenGot</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillLevelWhenGot</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔获得后的初始等级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能获得后的初始等级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeadQuarterLevelWhenInBattle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大本营战斗中的初始等级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower_XBow1|Tower_Cannon1|AvatarFrame_None</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower_XBow1|Tower_Cannon1|Tower_Flame1|Tower_AcidMist1|Tower_Draco1|Tower_Thunder1|Tower_IceTower1|Tower_SpeedTower1|AvatarFrame_None</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Tower_XBow1|Tower_Cannon1|Tower_Flame1|Tower_AcidMist1|Tower_Draco1|Tower_Thunder1|Tower_IceTower1|Tower_SpeedTower1|Tower_MystOrb1|Tower_Alchemy1|Tower_Scorpio1|Tower_Crystal1|Tower_Goblin1|Tower_Rocket1|Tower_Bomb1|Tower_Golem1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>|AvatarFrame_None</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlyHeight</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行高度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxBattleMonsterCallNum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>最多出战怪物卡数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>最多出战塔卡数</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -989,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AML69"/>
+  <dimension ref="A1:AML86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1089,7 +1216,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
@@ -1104,7 +1231,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
@@ -1119,7 +1246,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
@@ -1134,7 +1261,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
@@ -1149,7 +1276,7 @@
         <v>29</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
@@ -1198,25 +1325,25 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1246,7 +1373,7 @@
         <v>44</v>
       </c>
       <c r="E17" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1261,7 +1388,7 @@
         <v>46</v>
       </c>
       <c r="E18" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1276,12 +1403,13 @@
         <v>48</v>
       </c>
       <c r="E19" s="2">
-        <v>120</v>
+        <f>600*15</f>
+        <v>9000</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>7</v>
@@ -1291,7 +1419,7 @@
         <v>49</v>
       </c>
       <c r="E20" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1306,699 +1434,938 @@
         <v>51</v>
       </c>
       <c r="E21" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="E22" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="E23" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="E24" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="2" t="b">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="E25" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E26" s="2">
-        <v>0.9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E27" s="2">
-        <v>0.9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="E28" s="2">
-        <v>0.9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="E29" s="2">
-        <v>-0.3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="E30" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="2" t="b">
-        <v>1</v>
+        <v>170</v>
+      </c>
+      <c r="E31" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>62</v>
+        <v>171</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>63</v>
+        <v>172</v>
       </c>
       <c r="E32" s="2">
-        <v>120</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="E33" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="2">
-        <v>300</v>
+        <v>53</v>
+      </c>
+      <c r="E34" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.9</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="6">
-        <v>45362.785254629627</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="H36" s="4"/>
+        <v>150</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="E37" s="2">
-        <v>8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E38" s="2">
-        <v>3</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E39" s="6">
-        <v>45495.5</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="H39" s="4"/>
+        <v>146</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E40" s="2">
-        <v>7</v>
-      </c>
-      <c r="F40" s="4"/>
-      <c r="H40" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="E40" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="4"/>
+      <c r="A41" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+      <c r="D41" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="2">
+        <v>120</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>147</v>
+        <v>60</v>
+      </c>
+      <c r="E42" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
+      <c r="A43" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="D43" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="2">
+        <v>300</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" s="4">
-        <v>1234</v>
+        <v>65</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>137</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E45" s="6">
+        <v>45362.785254629627</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="H45" s="4"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="4"/>
-      <c r="D46" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E46" s="4">
-        <v>120</v>
-      </c>
-      <c r="F46" s="4"/>
-      <c r="H46" s="4"/>
+      <c r="D46" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E46" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E47" s="4">
-        <v>1</v>
-      </c>
-      <c r="F47" s="4"/>
-      <c r="H47" s="4"/>
+      <c r="D47" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E48" t="s">
-        <v>87</v>
-      </c>
-      <c r="F48" s="4"/>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E48" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="E49" s="6">
+        <v>45495.5</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="M49"/>
+      <c r="N49"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>128</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="E50" s="2">
+        <v>7</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="M50"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
       <c r="C51" s="4"/>
-      <c r="D51" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D51" s="4"/>
+      <c r="M51"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>128</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="M52"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
       <c r="C53" s="4"/>
-      <c r="D53" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D53" s="4"/>
+      <c r="M53"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1234</v>
+      </c>
+      <c r="M54"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E55" s="2">
+        <v>73</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="M55"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" s="4">
         <v>120</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E56" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="M56"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C57" s="4"/>
-      <c r="D57" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E57" s="2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E58" s="4"/>
+      <c r="D57" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
+      <c r="F57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="M57"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E58" t="s">
+        <v>81</v>
+      </c>
       <c r="F58" s="4"/>
       <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="M58"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M59"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M60"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M61"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M62"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M63"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M64"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E65" s="2">
+        <v>120</v>
+      </c>
+      <c r="M65"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E66" s="2">
+        <v>20</v>
+      </c>
+      <c r="M66"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E67" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E69" s="4">
+        <v>1</v>
+      </c>
+      <c r="F69" s="4"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E70" s="4">
+        <v>2</v>
+      </c>
+      <c r="F70" s="4"/>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E71" s="4">
+        <v>5</v>
+      </c>
+      <c r="F71" s="4"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="4" t="s">
+      <c r="B72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E72" s="4">
+        <v>8</v>
+      </c>
+      <c r="F72" s="4"/>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E74" s="4">
         <v>1</v>
       </c>
-      <c r="F59" s="4"/>
-      <c r="H59" s="4"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E60" s="4">
+      <c r="F74" s="4"/>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E75" s="4">
         <v>2</v>
       </c>
-      <c r="F60" s="4"/>
-      <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E61" s="4">
+      <c r="F75" s="4"/>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E76" s="4">
         <v>5</v>
       </c>
-      <c r="F61" s="4"/>
-      <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E62" s="4">
+      <c r="F76" s="4"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E77" s="4">
         <v>8</v>
       </c>
-      <c r="F62" s="4"/>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="H63" s="4"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E64" s="4">
-        <v>1</v>
-      </c>
-      <c r="F64" s="4"/>
-      <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E65" s="4">
+      <c r="F77" s="4"/>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E79" s="2">
         <v>2</v>
       </c>
-      <c r="F65" s="4"/>
-      <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E66" s="4">
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E80" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E82" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E83" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E84" s="2">
         <v>5</v>
       </c>
-      <c r="F66" s="4"/>
-      <c r="H66" s="4"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E67" s="4">
-        <v>8</v>
-      </c>
-      <c r="F67" s="4"/>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E69" s="2">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E86" s="2">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>